--- a/Doc/Galleon Games Gantt chart.xlsx
+++ b/Doc/Galleon Games Gantt chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vandalsuidaho-my.sharepoint.com/personal/jbeeston_uidaho_edu/Documents/CS383/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12089\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61A51F8A-5EF7-47C7-BFC5-B38B967E66B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B6E3E0-E7FE-404E-B79A-A76B404121DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29895" yWindow="1650" windowWidth="21600" windowHeight="13875" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="81">
   <si>
     <t>Total</t>
   </si>
@@ -293,7 +293,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,26 +616,6 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -672,7 +652,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color auto="1"/>
       </font>
       <fill>
         <patternFill>
@@ -682,7 +662,7 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
+        <color rgb="FFFFFF00"/>
       </font>
       <fill>
         <patternFill>
@@ -692,7 +672,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill>
@@ -852,7 +832,7 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
@@ -862,7 +842,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFFF00"/>
+        <color auto="1"/>
       </font>
       <fill>
         <patternFill>
@@ -872,7 +852,27 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
@@ -1226,32 +1226,32 @@
       <selection activeCell="S4" sqref="S4:S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="3.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="2.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" customWidth="1"/>
-    <col min="18" max="18" width="5.140625" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" customWidth="1"/>
+    <col min="14" max="14" width="5.44140625" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" customWidth="1"/>
+    <col min="18" max="18" width="5.109375" customWidth="1"/>
+    <col min="19" max="19" width="13.44140625" customWidth="1"/>
+    <col min="20" max="20" width="13.5546875" customWidth="1"/>
+    <col min="21" max="21" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:21">
+    <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C2" s="52" t="s">
         <v>0</v>
       </c>
@@ -1279,7 +1279,7 @@
       <c r="T2" s="53"/>
       <c r="U2" s="54"/>
     </row>
-    <row r="3" spans="2:21" ht="15.75" thickBot="1">
+    <row r="3" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:21">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
         <v>8</v>
       </c>
@@ -1345,19 +1345,19 @@
       <c r="K4" s="20"/>
       <c r="L4" s="21">
         <f>Meetings!B4*100</f>
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="M4" s="22">
         <f>(K4-L4)</f>
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="O4" s="20">
         <f>(SA!C5)*100</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P4" s="21">
         <f>(SA!D5)*100</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="22">
         <f>(O4-P4)</f>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:21">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
@@ -1392,23 +1392,23 @@
       <c r="K5" s="14"/>
       <c r="L5" s="15">
         <f>Meetings!B5*100</f>
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="M5" s="16">
         <f t="shared" ref="M5:M9" si="2">(K5-L5)</f>
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="O5" s="14">
         <f>(SA!C9)*100</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P5" s="15">
         <f>(SA!D9)*100</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Q5" s="16">
         <f t="shared" ref="Q5:Q9" si="3">(O5-P5)</f>
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="S5" s="14"/>
       <c r="T5" s="15">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:21">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
@@ -1439,23 +1439,23 @@
       <c r="K6" s="14"/>
       <c r="L6" s="15">
         <f>Meetings!B6*100</f>
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="M6" s="16">
         <f t="shared" si="2"/>
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="O6" s="14">
         <f>(SA!C15)*100</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P6" s="15">
         <f>(SA!D15)*100</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q6" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S6" s="14"/>
       <c r="T6" s="15">
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:21">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
@@ -1486,23 +1486,23 @@
       <c r="K7" s="14"/>
       <c r="L7" s="15">
         <f>Meetings!B7*100</f>
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="M7" s="16">
         <f t="shared" ref="M7:M8" si="7">(K7-L7)</f>
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="O7" s="14">
         <f>(SA!C19)*100</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P7" s="15">
         <f>(SA!D19)*100</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="16">
         <f t="shared" ref="Q7:Q8" si="8">(O7-P7)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S7" s="14"/>
       <c r="T7" s="15">
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:21">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
@@ -1533,19 +1533,19 @@
       <c r="K8" s="14"/>
       <c r="L8" s="15">
         <f>Meetings!B8*100</f>
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="M8" s="16">
         <f t="shared" si="7"/>
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="O8" s="14">
         <f>(SA!C23)*100</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P8" s="15">
         <f>(SA!D23)*100</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="16">
         <f t="shared" si="8"/>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="15.75" thickBot="1">
+    <row r="9" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
@@ -1580,19 +1580,19 @@
       <c r="K9" s="14"/>
       <c r="L9" s="15">
         <f>Meetings!B9*100</f>
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="M9" s="16">
         <f t="shared" si="2"/>
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="O9" s="43">
         <f>(SA!C27)*100</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P9" s="44">
         <f>(SA!D27)*100</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="27">
         <f t="shared" si="3"/>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:21" ht="15.75" thickBot="1">
+    <row r="10" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="13" t="s">
         <v>0</v>
       </c>
@@ -1642,23 +1642,23 @@
       </c>
       <c r="L10" s="18">
         <f>SUM(L4:L9)</f>
-        <v>1200</v>
+        <v>3600</v>
       </c>
       <c r="M10" s="19">
         <f>SUM(M4:M9)</f>
-        <v>-1200</v>
+        <v>-3600</v>
       </c>
       <c r="O10" s="24">
         <f>SUM(O4:O9)</f>
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="P10" s="25">
         <f>SUM(P4:P9)</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="Q10" s="26">
         <f>SUM(Q4:Q9)</f>
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S10" s="24">
         <f>SUM(S4:S9)</f>
@@ -1690,19 +1690,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BK39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A1" s="46"/>
       <c r="B1" s="46" t="s">
         <v>14</v>
@@ -1781,7 +1781,7 @@
       <c r="BJ1" s="46"/>
       <c r="BK1" s="46"/>
     </row>
-    <row r="2" spans="1:63" s="2" customFormat="1">
+    <row r="2" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:63">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:63">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:63">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:63">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:63">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -2081,12 +2081,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:63" s="2" customFormat="1">
+    <row r="8" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:63">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:63">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:63">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:63">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:63">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2146,12 +2146,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:63" s="2" customFormat="1">
+    <row r="14" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:63">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="16" spans="1:63">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2264,12 +2264,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" s="2" customFormat="1">
+    <row r="20" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2348,12 +2348,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="2" customFormat="1">
+    <row r="27" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -2413,12 +2413,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="2" customFormat="1">
+    <row r="33" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37">
         <f>SUM(B34:B36)</f>
         <v>9</v>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="5" customFormat="1">
+    <row r="38" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>43</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="5" customFormat="1">
+    <row r="39" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>44</v>
       </c>
@@ -2492,114 +2492,118 @@
       <c r="D39" s="51"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:D5 D15 N17:S17 Q18:X18 G16:P16">
-    <cfRule type="cellIs" dxfId="29" priority="115" operator="equal">
+  <conditionalFormatting sqref="D3:D6">
+    <cfRule type="cellIs" dxfId="29" priority="94" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="95" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="117" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15:F15 E3:BR3 E5:BR14 E4:F4 H4:BR4 S15:BR16 E19:BR25 Z17:BR17 S17 AG18:BR18 E18:M18 Q18:X18">
-    <cfRule type="cellIs" dxfId="26" priority="97" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="98" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="99" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="23" priority="94" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="95" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="96" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D12">
-    <cfRule type="cellIs" dxfId="20" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="91" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="92" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="93" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15 G16:P16 N17:S17 Q18:X18">
+    <cfRule type="cellIs" dxfId="23" priority="116" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="117" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D25">
-    <cfRule type="cellIs" dxfId="17" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="85" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="86" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="87" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:D31">
+    <cfRule type="cellIs" dxfId="18" priority="28" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="29" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="30" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D36">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:BR3 E4:F4 E5:BR14 H4:BR4 E15:F15 S15:BR16 S17 Z17:BR17 E18:M18 Q18:X18 AG18:BR18 E19:BR25">
+    <cfRule type="cellIs" dxfId="12" priority="97" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:BR3 E4:F4 H4:BR4 E5:BR14 E15:F15 S15:BR16 S17 Z17:BR17 E18:M18 Q18:X18 AG18:BR18 E19:BR25">
+    <cfRule type="cellIs" dxfId="11" priority="98" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="99" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:BR31">
+    <cfRule type="cellIs" dxfId="9" priority="31" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="32" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="33" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33:BR36">
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="15" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="cellIs" dxfId="14" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="82" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="83" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="84" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:BR31">
-    <cfRule type="cellIs" dxfId="11" priority="31" operator="equal">
+  <conditionalFormatting sqref="N17:S17 Q18:X18 D15 G16:P16">
+    <cfRule type="cellIs" dxfId="0" priority="115" operator="equal">
       <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="32" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="33" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D31">
-    <cfRule type="cellIs" dxfId="8" priority="28" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="29" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="30" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33:BR36">
-    <cfRule type="cellIs" dxfId="5" priority="13" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="14" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="15" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D36">
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
-      <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -2616,16 +2620,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
         <v>45</v>
       </c>
@@ -2660,7 +2664,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="62.25" customHeight="1">
+    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>56</v>
       </c>
@@ -2695,7 +2699,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>65</v>
       </c>
@@ -2730,13 +2734,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="5">
         <f t="shared" ref="B4:B9" si="0">SUMIF(C4:L4,A$12,C$3:Z$3)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>66</v>
@@ -2744,8 +2748,12 @@
       <c r="D4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -2753,13 +2761,13 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>66</v>
@@ -2767,20 +2775,24 @@
       <c r="D5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>66</v>
@@ -2788,8 +2800,12 @@
       <c r="D6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -2797,13 +2813,13 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>66</v>
@@ -2811,8 +2827,12 @@
       <c r="D7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -2820,13 +2840,13 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>66</v>
@@ -2834,8 +2854,12 @@
       <c r="D8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -2843,13 +2867,13 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>66</v>
@@ -2857,8 +2881,12 @@
       <c r="D9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -2866,29 +2894,29 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="5">
         <f>SUM(B4:B9)</f>
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C10" s="5">
         <f>COUNTIF(C4:C9,"*ü*") * C3</f>
         <v>6</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" ref="C10:L10" si="1">COUNTIF(D4:D9,"*ü*") * D3</f>
+        <f t="shared" ref="D10:L10" si="1">COUNTIF(D4:D9,"*ü*") * D3</f>
         <v>6</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
@@ -2915,12 +2943,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
     </row>
   </sheetData>
@@ -2933,18 +2961,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="19" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="19" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="29"/>
       <c r="B1" s="30" t="s">
         <v>67</v>
@@ -3001,17 +3031,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="34"/>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="34">
+        <v>2</v>
+      </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="35"/>
       <c r="B3" s="33"/>
       <c r="D3" s="34"/>
@@ -3022,7 +3057,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="35"/>
       <c r="B4" s="33"/>
       <c r="D4" s="34"/>
@@ -3031,32 +3066,37 @@
       <c r="I4" s="3"/>
       <c r="J4" s="50"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
       <c r="B5" s="33" t="s">
         <v>71</v>
       </c>
       <c r="C5" s="33">
         <f>SUM(C2:C4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="36">
         <f>SUM(D2:D4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="34">
+        <v>1.5</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="35"/>
       <c r="B7" s="33"/>
       <c r="D7" s="34"/>
@@ -3066,7 +3106,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="35"/>
       <c r="B8" s="33"/>
       <c r="D8" s="34"/>
@@ -3075,31 +3115,36 @@
       <c r="I8" s="3"/>
       <c r="J8" s="45"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="35"/>
       <c r="B9" s="33" t="s">
         <v>71</v>
       </c>
       <c r="C9" s="33">
         <f>SUM(C6:C8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="36">
         <f>SUM(D6:D8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="34">
+        <v>3</v>
+      </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="35"/>
       <c r="B11" s="33"/>
       <c r="D11" s="34"/>
@@ -3109,14 +3154,14 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="35"/>
       <c r="B12" s="37"/>
       <c r="D12" s="34"/>
       <c r="K12" s="45"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="37" t="s">
         <v>72</v>
@@ -3124,39 +3169,44 @@
       <c r="D13" s="34"/>
       <c r="M13" s="45"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="35"/>
       <c r="B14" s="37"/>
       <c r="D14" s="34"/>
       <c r="N14" s="45"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="35"/>
       <c r="B15" s="38" t="s">
         <v>71</v>
       </c>
       <c r="C15" s="33">
         <f>SUM(C10:C14)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15" s="36">
         <f>SUM(D10:D14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="34">
+        <v>1.5</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="35"/>
       <c r="B17" s="33"/>
       <c r="D17" s="34"/>
@@ -3166,7 +3216,7 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="35"/>
       <c r="B18" s="33"/>
       <c r="D18" s="34"/>
@@ -3175,32 +3225,37 @@
       <c r="I18" s="3"/>
       <c r="J18" s="45"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="38" t="s">
         <v>71</v>
       </c>
       <c r="C19" s="33">
         <f>SUM(C16:C18)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="36">
         <f>SUM(D16:D18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="34"/>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="34">
+        <v>2</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="33"/>
       <c r="D21" s="34"/>
@@ -3210,7 +3265,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="33"/>
       <c r="D22" s="34"/>
@@ -3219,32 +3274,37 @@
       <c r="I22" s="3"/>
       <c r="J22" s="45"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="35"/>
       <c r="B23" s="38" t="s">
         <v>71</v>
       </c>
       <c r="C23" s="33">
         <f>SUM(C20:C22)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" s="36">
         <f>SUM(D20:D22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="34"/>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" s="34">
+        <v>2</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="33"/>
       <c r="D25" s="34"/>
@@ -3254,7 +3314,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="33"/>
       <c r="D26" s="34"/>
@@ -3263,35 +3323,35 @@
       <c r="I26" s="3"/>
       <c r="J26" s="45"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="35"/>
       <c r="B27" s="38" t="s">
         <v>71</v>
       </c>
       <c r="C27" s="33">
         <f>SUM(C24:C26)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27" s="36">
         <f>SUM(D24:D26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="39"/>
       <c r="B28" s="40" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="41">
         <f>SUM(C5,C9,C15,C27)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D28" s="42">
         <f>SUM(D5,D9,D15,D27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B29" s="28" t="s">
         <v>73</v>
       </c>
@@ -3310,18 +3370,18 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
         <v>8</v>
@@ -3342,40 +3402,40 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
